--- a/WpfClient/Resources/OperationsTemplate.xlsx
+++ b/WpfClient/Resources/OperationsTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thron\source\repos\RequestManagementSystem\WpfClient\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thron\source\repos\Thron41k\RequestManagementSystem\WpfClient\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7EA017-1ED8-4D05-8A1F-C37120700F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37232A5-FA08-4DA1-B710-C9FB2124ACC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист_1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>Приложение № 13</t>
   </si>
@@ -28,13 +28,7 @@
     <t>СТО 03.03 (версия 08)</t>
   </si>
   <si>
-    <t>УТВЕРЖДАЮ:</t>
-  </si>
-  <si>
     <t>(должность)</t>
-  </si>
-  <si>
-    <t>(подпись, расшифровка)</t>
   </si>
   <si>
     <t>ввода в эксплуатацию малоценного инвентаря</t>
@@ -166,7 +160,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -179,16 +173,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="1"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -215,14 +199,6 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -451,7 +427,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -465,113 +441,101 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -596,13 +560,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -638,13 +602,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -970,10 +934,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V31"/>
+  <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="AB12" sqref="AB12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1008,504 +972,462 @@
       </c>
     </row>
     <row r="3" spans="1:22" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="S4" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-    </row>
-    <row r="5" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-    </row>
-    <row r="6" spans="1:22" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="T6" s="12" t="s">
+    <row r="4" spans="1:22" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+    </row>
+    <row r="5" spans="1:22" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-    </row>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+    </row>
+    <row r="6" spans="1:22" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-    </row>
-    <row r="8" spans="1:22" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="T8" s="12" t="s">
+      <c r="T7" s="3"/>
+      <c r="U7" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-    </row>
-    <row r="9" spans="1:22" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:22" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-    </row>
-    <row r="11" spans="1:22" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
+      <c r="V7" s="36"/>
+    </row>
+    <row r="8" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-    </row>
-    <row r="12" spans="1:22" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="T13" s="3"/>
-      <c r="U13" s="15" t="s">
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+    </row>
+    <row r="9" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="V13" s="15"/>
+      <c r="C9" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="T9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="U9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="V9" s="11"/>
+    </row>
+    <row r="10" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+    </row>
+    <row r="11" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" spans="1:22" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:22" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L13" s="3"/>
+      <c r="M13" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" s="33"/>
+      <c r="O13" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="S13" s="34"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="V13" s="34"/>
     </row>
     <row r="14" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="T14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
     </row>
     <row r="15" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="T15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="U15" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="V15" s="18"/>
-    </row>
-    <row r="16" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
+      <c r="A15" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+    </row>
+    <row r="16" spans="1:22" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="L16" s="19"/>
       <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-    </row>
-    <row r="17" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="7"/>
-    </row>
-    <row r="18" spans="1:22" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="1:22" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L19" s="3"/>
-      <c r="M19" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="N19" s="20"/>
-      <c r="O19" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="S19" s="21"/>
-      <c r="T19" s="21"/>
-      <c r="U19" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="V19" s="21"/>
-    </row>
-    <row r="20" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L20" s="3"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="24"/>
-      <c r="U20" s="25"/>
-      <c r="V20" s="25"/>
-    </row>
-    <row r="21" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-    </row>
+      <c r="N16" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="24"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="25"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="24"/>
+    </row>
+    <row r="18" spans="1:22" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="U18" s="19"/>
+      <c r="V18" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="9"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="5"/>
+    </row>
+    <row r="20" spans="1:22" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="9"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="5"/>
+    </row>
+    <row r="21" spans="1:22" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:22" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="K22" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="R22" s="27"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="U22" s="27"/>
-      <c r="V22" s="27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="28"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L23" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="M23" s="32"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="31"/>
-      <c r="T23" s="29"/>
-      <c r="U23" s="31"/>
-      <c r="V23" s="28"/>
-    </row>
-    <row r="24" spans="1:22" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L24" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="R24" s="16"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="16" t="s">
+      <c r="A22" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="U24" s="16"/>
-      <c r="V24" s="5" t="s">
+      <c r="B22" s="15"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="15" t="s">
         <v>39</v>
       </c>
-    </row>
+      <c r="L22" s="15"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="17"/>
+    </row>
+    <row r="23" spans="1:22" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C23" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="18"/>
+      <c r="F23" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="18"/>
+      <c r="I23" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="J23" s="18"/>
+      <c r="M23" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="Q23" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="R23" s="18"/>
+      <c r="T23" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="U23" s="18"/>
+      <c r="V23" s="18"/>
+    </row>
+    <row r="24" spans="1:22" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="1:22" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="33"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="34"/>
-      <c r="U25" s="34"/>
-      <c r="V25" s="5"/>
-    </row>
-    <row r="26" spans="1:22" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="34"/>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="33"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="34"/>
-      <c r="U26" s="34"/>
-      <c r="V26" s="5"/>
-    </row>
-    <row r="27" spans="1:22" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:22" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="39"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="L28" s="39"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38"/>
-      <c r="O28" s="38"/>
-      <c r="Q28" s="35"/>
-      <c r="R28" s="35"/>
-      <c r="T28" s="36"/>
-      <c r="U28" s="36"/>
-      <c r="V28" s="36"/>
-    </row>
-    <row r="29" spans="1:22" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="37"/>
-      <c r="F29" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="G29" s="37"/>
-      <c r="I29" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="J29" s="37"/>
-      <c r="M29" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="N29" s="37"/>
-      <c r="O29" s="37"/>
-      <c r="Q29" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="R29" s="37"/>
-      <c r="T29" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="U29" s="37"/>
-      <c r="V29" s="37"/>
-    </row>
-    <row r="30" spans="1:22" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:22" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="40"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="66">
-    <mergeCell ref="I31:M31"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="T28:V28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="T29:V29"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="Q26:S26"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="Q25:S25"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="N22:P23"/>
-    <mergeCell ref="Q22:S23"/>
-    <mergeCell ref="T22:U23"/>
-    <mergeCell ref="V22:V23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="R20:T20"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="C15:O15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="D16:O16"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="A10:V10"/>
-    <mergeCell ref="A11:V11"/>
+  <mergeCells count="60">
+    <mergeCell ref="A4:V4"/>
+    <mergeCell ref="A5:V5"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="C9:O9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="D10:O10"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="R13:T13"/>
     <mergeCell ref="U13:V13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="R14:T14"/>
     <mergeCell ref="U14:V14"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="T5:V5"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="N16:P17"/>
+    <mergeCell ref="Q16:S17"/>
+    <mergeCell ref="T16:U17"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="Q19:S19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="T22:V22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="T23:V23"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="I25:M25"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="A22:B22"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
